--- a/Udacityproject2.xlsx
+++ b/Udacityproject2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nopbai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB4AC1CF-B652-40DA-A8C3-5848377F61E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECC63A2-6933-4326-B6A9-4DA41AAD2B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{94C11C6C-4974-4658-8156-DA793DF3554F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94C11C6C-4974-4658-8156-DA793DF3554F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -56,57 +56,18 @@
     <t>Create trello board</t>
   </si>
   <si>
-    <t>Create Git repo</t>
-  </si>
-  <si>
-    <t>Create architecture overview</t>
-  </si>
-  <si>
-    <t>Replace the scaffolding code with the flask code</t>
-  </si>
-  <si>
-    <t>Run app localy</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Run app on azure</t>
-  </si>
-  <si>
-    <t>Set up GitHub Actions</t>
-  </si>
-  <si>
-    <t>Create Github Actions Badge</t>
-  </si>
-  <si>
-    <t>Create the App Service in Azure</t>
-  </si>
-  <si>
-    <t>Test the app running in Azure App Service</t>
-  </si>
-  <si>
-    <t>Set up the Azure DevOps pipeline</t>
-  </si>
-  <si>
     <t>Take screenshots demonstrating key steps</t>
   </si>
   <si>
     <t>Create README file with instructions</t>
   </si>
   <si>
-    <t xml:space="preserve">Create demo video </t>
-  </si>
-  <si>
     <t>Goals</t>
   </si>
   <si>
-    <t>Create the VM</t>
-  </si>
-  <si>
-    <t>Install agent on the VM</t>
-  </si>
-  <si>
     <t>Pass project ontime</t>
   </si>
   <si>
@@ -116,10 +77,52 @@
     <t>Yearly plan</t>
   </si>
   <si>
-    <t>Pass this project and learning another project on Udacity</t>
-  </si>
-  <si>
     <t>Get the certificate Az400</t>
+  </si>
+  <si>
+    <t>Set up ssh-key using Azure Cloud Shell</t>
+  </si>
+  <si>
+    <t>Create a virtual environment:</t>
+  </si>
+  <si>
+    <t>Run application in localhost</t>
+  </si>
+  <si>
+    <t>Create Github Actions</t>
+  </si>
+  <si>
+    <t>Create Azure App Service</t>
+  </si>
+  <si>
+    <t>Create new agent pool</t>
+  </si>
+  <si>
+    <t>Set up the Azure Pipeline</t>
+  </si>
+  <si>
+    <t>Create new service connection</t>
+  </si>
+  <si>
+    <t>Test and build pipeline</t>
+  </si>
+  <si>
+    <t>Test app running on Azure</t>
+  </si>
+  <si>
+    <t>Capture the screenshots every step</t>
+  </si>
+  <si>
+    <t>Update readme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recording the video </t>
+  </si>
+  <si>
+    <t>19/10/2024</t>
+  </si>
+  <si>
+    <t>Pass this project and learning another course on Udacity</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7862C90-4BD7-486E-8FFB-F8DB1A1568D9}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -582,9 +585,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3">
+        <v>45567</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -592,178 +597,166 @@
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>45567</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3">
+        <v>45573</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>45571</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
+      <c r="A12" s="3">
+        <v>45581</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
-        <v>45578</v>
+      <c r="A14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="8"/>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
